--- a/AAAGameData/DataTables/Core/UITable.xlsx
+++ b/AAAGameData/DataTables/Core/UITable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GF_X\AAAGameData\DataTables\Core\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MMW\AAAGameData\DataTables\Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54EF179-3EE7-462C-A412-208669102B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>#</t>
   </si>
@@ -65,57 +66,59 @@
     <t>GameUIForm</t>
   </si>
   <si>
+    <t>返回键触发关闭界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同组界面被覆盖时是否隐藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainPanel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>UIForm</t>
-  </si>
-  <si>
-    <t>SettingDialog</t>
-  </si>
-  <si>
-    <t>Dialog</t>
-  </si>
-  <si>
-    <t>CommonDialog</t>
-  </si>
-  <si>
-    <t>ToastTips</t>
-  </si>
-  <si>
-    <t>Tips</t>
-  </si>
-  <si>
-    <t>GameOverUIForm</t>
-  </si>
-  <si>
-    <t>MenuUIForm</t>
-  </si>
-  <si>
-    <t>返回键触发关闭界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LanguagesDialog</t>
-  </si>
-  <si>
-    <t>RatingDialog</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TermsOfServiceDialog</t>
-  </si>
-  <si>
-    <t>同组界面被覆盖时是否隐藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIScenes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIScene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SettingPanel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +137,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -158,9 +168,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -179,9 +192,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -219,9 +232,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -256,7 +269,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,7 +304,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -464,21 +477,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="23.36328125" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,7 +500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -509,7 +523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -532,7 +546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -540,16 +554,16 @@
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
@@ -565,171 +579,80 @@
       <c r="F5" t="b">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
-        <v>14</v>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D6">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="F6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D7">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F7" t="b">
         <v>1</v>
       </c>
-      <c r="G7" t="s">
-        <v>16</v>
+      <c r="G7" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>4</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="D8">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>999</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B12">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B13">
-        <v>9</v>
-      </c>
-      <c r="D13">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -740,12 +663,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -753,12 +676,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
